--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t xml:space="preserve">f: function; c: class; p: pending work</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">spectral_resample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop_segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_ref_crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f, average the reflectance of crops</t>
   </si>
   <si>
     <t xml:space="preserve">transformation.py</t>
@@ -216,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,48 +334,48 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="F16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -374,7 +383,7 @@
       <c r="D22" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="0" t="s">
@@ -382,16 +391,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="E24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>6</v>
@@ -399,7 +408,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>6</v>
@@ -407,7 +416,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
@@ -415,7 +424,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>6</v>
@@ -423,7 +432,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>6</v>
@@ -431,9 +440,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -67,13 +67,13 @@
     <t xml:space="preserve">spectral_resample</t>
   </si>
   <si>
-    <t xml:space="preserve">crop_segmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_ref_crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f, average the reflectance of crops</t>
+    <t xml:space="preserve">green_plant_segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f, average the reflectance under a mask</t>
   </si>
   <si>
     <t xml:space="preserve">transformation.py</t>
@@ -228,7 +228,7 @@
   <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t xml:space="preserve">f: function; c: class; p: pending work</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">modelling_svr_rbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiwam/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiwan_tools.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match_barcode_pippa</t>
   </si>
 </sst>
 </file>
@@ -225,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,6 +471,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">wiwan_tools.py</t>
   </si>
   <si>
-    <t xml:space="preserve">match_barcode_pippa</t>
+    <t xml:space="preserve">check_fx10_dark_error</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t xml:space="preserve">f: function; c: class; p: pending work</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">check_fx10_dark_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field_explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe_tools.py</t>
   </si>
 </sst>
 </file>
@@ -234,10 +240,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,6 +496,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>f: function; c: class; p: pending work</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>pippa_info_data.py</t>
+  </si>
+  <si>
+    <t>fix_fx10_dark_error</t>
   </si>
 </sst>
 </file>
@@ -473,54 +476,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F39"/>
+  <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="11.54296875"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -528,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -536,12 +539,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -549,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>10</v>
       </c>
@@ -557,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -565,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
@@ -573,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
@@ -581,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
@@ -597,13 +600,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
@@ -611,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
@@ -619,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
@@ -627,7 +630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -638,12 +641,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>26</v>
       </c>
@@ -654,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>28</v>
       </c>
@@ -662,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>29</v>
       </c>
@@ -670,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>30</v>
       </c>
@@ -678,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>31</v>
       </c>
@@ -686,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>32</v>
       </c>
@@ -694,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>33</v>
       </c>
@@ -702,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>34</v>
       </c>
@@ -710,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>40</v>
       </c>
@@ -721,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -729,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -737,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>35</v>
       </c>
@@ -745,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>36</v>
       </c>
@@ -756,21 +759,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
     </row>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -86,9 +86,6 @@
     <t>spectral_angle_mapper</t>
   </si>
   <si>
-    <t>hh2hsi</t>
-  </si>
-  <si>
     <t>snv</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>fix_fx10_dark_error</t>
+  </si>
+  <si>
+    <t>hc2hhsi</t>
   </si>
 </sst>
 </file>
@@ -479,51 +479,51 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.54296875"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" customWidth="1"/>
-    <col min="8" max="1025" width="11.54296875"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -539,12 +539,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>10</v>
       </c>
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
@@ -600,13 +600,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
@@ -614,175 +614,175 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>f: function; c: class; p: pending work</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>hc2hhsi</t>
+  </si>
+  <si>
+    <t>calculate_bi_classification_metrics</t>
+  </si>
+  <si>
+    <t>average_classification_metrics</t>
+  </si>
+  <si>
+    <t>average_bi_classification_metrics</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F40"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,26 +743,23 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -761,27 +767,54 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>43</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>38</v>
       </c>
     </row>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t xml:space="preserve">f: function; c: class; p: pending work</t>
   </si>
@@ -79,10 +79,16 @@
     <t xml:space="preserve">f, segment a batch of raw data</t>
   </si>
   <si>
-    <t xml:space="preserve">ave_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f, average the reflectance under a mask</t>
+    <t xml:space="preserve">average_ref_under_mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f, average the reflectance of a calibrated hypcube under a mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_ref_under_mask_wiwam_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f, average the reflectance of a batch of raw data of the WIWAM system</t>
   </si>
   <si>
     <t xml:space="preserve">transformation.py</t>
@@ -264,19 +270,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F41"/>
+  <dimension ref="B1:F42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,23 +402,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="F19" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>6</v>
@@ -418,42 +426,42 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
@@ -461,7 +469,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>6</v>
@@ -469,7 +477,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>6</v>
@@ -477,7 +485,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
@@ -485,7 +493,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>6</v>
@@ -493,7 +501,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>6</v>
@@ -501,26 +509,26 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>6</v>
@@ -528,55 +536,63 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
-        <v>45</v>
+      <c r="E39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D40" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
-        <v>47</v>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t xml:space="preserve">f: function; c: class; p: pending work</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">tune_svm_classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_class_map</t>
   </si>
   <si>
     <t xml:space="preserve">wiwam/</t>
@@ -270,21 +273,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F42"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,26 +553,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="F37" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="0" t="s">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
         <v>46</v>
       </c>
@@ -578,21 +581,29 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="F40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+      <c r="D41" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
-        <v>49</v>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/appf_toolbox_structure.xlsx
+++ b/appf_toolbox_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_projects\appf_toolbox_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E5B5E-A8BF-45B2-B06D-FF2FB8FD38D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16742F5F-69DF-4918-A15C-02389C540E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>f: function; c: class; p: pending work</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>fuse_fx17_to_fx10</t>
+  </si>
+  <si>
+    <t>first_order_derivative</t>
+  </si>
+  <si>
+    <t>second_order_derivative</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F45"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -709,43 +715,43 @@
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>30</v>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>34</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -753,7 +759,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -761,7 +767,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -769,7 +775,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -777,7 +783,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -785,18 +791,15 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -804,15 +807,18 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -820,76 +826,92 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>50</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>51</v>
       </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>53</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F47" t="s">
         <v>6</v>
       </c>
     </row>
